--- a/Code/Results/Cases/Case_3_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9878896841300664</v>
+        <v>1.018245970556423</v>
       </c>
       <c r="D2">
-        <v>1.008149480986078</v>
+        <v>1.023935713125387</v>
       </c>
       <c r="E2">
-        <v>0.9960264080268788</v>
+        <v>1.01953932210469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038145205100699</v>
+        <v>1.027159414871329</v>
       </c>
       <c r="J2">
-        <v>1.010438746160039</v>
+        <v>1.023455495720206</v>
       </c>
       <c r="K2">
-        <v>1.019496436246305</v>
+        <v>1.026765689217259</v>
       </c>
       <c r="L2">
-        <v>1.007541380297067</v>
+        <v>1.022382269638418</v>
       </c>
       <c r="N2">
-        <v>1.011873685078517</v>
+        <v>1.024908919916115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.992131062639408</v>
+        <v>1.019142798033991</v>
       </c>
       <c r="D3">
-        <v>1.011131813779558</v>
+        <v>1.024579609787356</v>
       </c>
       <c r="E3">
-        <v>0.9993763241504495</v>
+        <v>1.02029831003834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038931170034336</v>
+        <v>1.027260784977316</v>
       </c>
       <c r="J3">
-        <v>1.012838565925045</v>
+        <v>1.02398883736891</v>
       </c>
       <c r="K3">
-        <v>1.021624215073297</v>
+        <v>1.027217014760895</v>
       </c>
       <c r="L3">
-        <v>1.010017191250295</v>
+        <v>1.022947433595613</v>
       </c>
       <c r="N3">
-        <v>1.014276912862866</v>
+        <v>1.025443018971135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9948212235424613</v>
+        <v>1.019723537735224</v>
       </c>
       <c r="D4">
-        <v>1.013024890404657</v>
+        <v>1.024996328756963</v>
       </c>
       <c r="E4">
-        <v>1.001507349841497</v>
+        <v>1.020790200135669</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039418499172946</v>
+        <v>1.027325016012484</v>
       </c>
       <c r="J4">
-        <v>1.014358337121473</v>
+        <v>1.024333773904531</v>
       </c>
       <c r="K4">
-        <v>1.022968617577915</v>
+        <v>1.027508442857501</v>
       </c>
       <c r="L4">
-        <v>1.011587616459535</v>
+        <v>1.023313247328722</v>
       </c>
       <c r="N4">
-        <v>1.015798842308713</v>
+        <v>1.025788445356202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9959396005405082</v>
+        <v>1.019967782910709</v>
       </c>
       <c r="D5">
-        <v>1.013812191774826</v>
+        <v>1.025171533601696</v>
       </c>
       <c r="E5">
-        <v>1.00239474405621</v>
+        <v>1.020997174442783</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039618367921627</v>
+        <v>1.027351691987983</v>
       </c>
       <c r="J5">
-        <v>1.014989549400936</v>
+        <v>1.024478743047606</v>
       </c>
       <c r="K5">
-        <v>1.02352623221691</v>
+        <v>1.027630811984352</v>
       </c>
       <c r="L5">
-        <v>1.012240475303561</v>
+        <v>1.023467061657256</v>
       </c>
       <c r="N5">
-        <v>1.016430950982014</v>
+        <v>1.025933620372088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9961266562142297</v>
+        <v>1.020008798705983</v>
       </c>
       <c r="D6">
-        <v>1.013943888544818</v>
+        <v>1.02520095216563</v>
       </c>
       <c r="E6">
-        <v>1.002543251326106</v>
+        <v>1.021031937065295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039651635584668</v>
+        <v>1.027356151822224</v>
       </c>
       <c r="J6">
-        <v>1.015095087368144</v>
+        <v>1.024503081496555</v>
       </c>
       <c r="K6">
-        <v>1.02361941941937</v>
+        <v>1.027651349627449</v>
       </c>
       <c r="L6">
-        <v>1.012349668352513</v>
+        <v>1.023492889261529</v>
       </c>
       <c r="N6">
-        <v>1.016536638825241</v>
+        <v>1.025957993384426</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.994836216171797</v>
+        <v>1.019726800951245</v>
       </c>
       <c r="D7">
-        <v>1.013035443646264</v>
+        <v>1.024998669791218</v>
       </c>
       <c r="E7">
-        <v>1.001519240250642</v>
+        <v>1.020792965016679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03942118938784</v>
+        <v>1.027325373742885</v>
       </c>
       <c r="J7">
-        <v>1.014366801382686</v>
+        <v>1.024335711156547</v>
       </c>
       <c r="K7">
-        <v>1.022976097962874</v>
+        <v>1.027510078539949</v>
       </c>
       <c r="L7">
-        <v>1.011596368585769</v>
+        <v>1.023315302501812</v>
       </c>
       <c r="N7">
-        <v>1.015807318590148</v>
+        <v>1.025790385359338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9893345863943593</v>
+        <v>1.018548967296559</v>
       </c>
       <c r="D8">
-        <v>1.009165117290993</v>
+        <v>1.024153304507182</v>
       </c>
       <c r="E8">
-        <v>0.9971662724223048</v>
+        <v>1.01979566436168</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038415274258972</v>
+        <v>1.027193955042797</v>
       </c>
       <c r="J8">
-        <v>1.011256759046086</v>
+        <v>1.023635775751023</v>
       </c>
       <c r="K8">
-        <v>1.020222356071383</v>
+        <v>1.026918342273675</v>
       </c>
       <c r="L8">
-        <v>1.008384765664437</v>
+        <v>1.022573244902177</v>
       </c>
       <c r="N8">
-        <v>1.012692859636703</v>
+        <v>1.025089455965254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9792037055309284</v>
+        <v>1.016476842703709</v>
       </c>
       <c r="D9">
-        <v>1.002052920680986</v>
+        <v>1.022664311004803</v>
       </c>
       <c r="E9">
-        <v>0.9892026771509026</v>
+        <v>1.018044293925567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036476165451338</v>
+        <v>1.026951973814643</v>
       </c>
       <c r="J9">
-        <v>1.00551282983779</v>
+        <v>1.022401141955604</v>
       </c>
       <c r="K9">
-        <v>1.015112778258015</v>
+        <v>1.025871014148735</v>
       </c>
       <c r="L9">
-        <v>1.002473396664849</v>
+        <v>1.021266580030363</v>
       </c>
       <c r="N9">
-        <v>1.006940773390093</v>
+        <v>1.023853068848231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9721260550431307</v>
+        <v>1.015097767876342</v>
       </c>
       <c r="D10">
-        <v>0.9970984901845636</v>
+        <v>1.021672185919217</v>
       </c>
       <c r="E10">
-        <v>0.9836775638268797</v>
+        <v>1.016880844497104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035065688992166</v>
+        <v>1.026783695275742</v>
       </c>
       <c r="J10">
-        <v>1.001490961748609</v>
+        <v>1.02157727761383</v>
       </c>
       <c r="K10">
-        <v>1.011520330650713</v>
+        <v>1.025169769486268</v>
       </c>
       <c r="L10">
-        <v>0.9983479141585032</v>
+        <v>1.020396173831303</v>
       </c>
       <c r="N10">
-        <v>1.002913193786911</v>
+        <v>1.023028034524593</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9689772415736981</v>
+        <v>1.014501184491556</v>
       </c>
       <c r="D11">
-        <v>0.9948986912232961</v>
+        <v>1.021242733556713</v>
       </c>
       <c r="E11">
-        <v>0.9812293327903149</v>
+        <v>1.016378058057887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034425619762075</v>
+        <v>1.026709186440694</v>
       </c>
       <c r="J11">
-        <v>0.9997000804702121</v>
+        <v>1.021220366198029</v>
       </c>
       <c r="K11">
-        <v>1.009917456265705</v>
+        <v>1.024865420969711</v>
       </c>
       <c r="L11">
-        <v>0.9965141357699713</v>
+        <v>1.020019460912652</v>
       </c>
       <c r="N11">
-        <v>1.001119769251682</v>
+        <v>1.022670616253643</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9677943180080621</v>
+        <v>1.014279673001967</v>
       </c>
       <c r="D12">
-        <v>0.9940730381886339</v>
+        <v>1.021083239224717</v>
       </c>
       <c r="E12">
-        <v>0.980311148689595</v>
+        <v>1.016191451877276</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034183336045155</v>
+        <v>1.026681264296139</v>
       </c>
       <c r="J12">
-        <v>0.9990271097248712</v>
+        <v>1.021087768630182</v>
       </c>
       <c r="K12">
-        <v>1.009314677231066</v>
+        <v>1.024752267727835</v>
       </c>
       <c r="L12">
-        <v>0.9958255335496321</v>
+        <v>1.019879561059593</v>
       </c>
       <c r="N12">
-        <v>1.000445842810692</v>
+        <v>1.022537830382041</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.968048672913005</v>
+        <v>1.014327184050356</v>
       </c>
       <c r="D13">
-        <v>0.9942505365281962</v>
+        <v>1.021117450214172</v>
       </c>
       <c r="E13">
-        <v>0.9805085075745189</v>
+        <v>1.016231472673268</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03423551402426</v>
+        <v>1.02668726482421</v>
       </c>
       <c r="J13">
-        <v>0.9991718209589258</v>
+        <v>1.021116212360972</v>
       </c>
       <c r="K13">
-        <v>1.00944431512785</v>
+        <v>1.02477654419784</v>
       </c>
       <c r="L13">
-        <v>0.9959735839881791</v>
+        <v>1.019909568761439</v>
       </c>
       <c r="N13">
-        <v>1.000590759551297</v>
+        <v>1.022566314506191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.968879736393218</v>
+        <v>1.014482872518264</v>
       </c>
       <c r="D14">
-        <v>0.9948306190726126</v>
+        <v>1.021229549218312</v>
       </c>
       <c r="E14">
-        <v>0.9811536174625893</v>
+        <v>1.016362630041212</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034405685766565</v>
+        <v>1.026706883407301</v>
       </c>
       <c r="J14">
-        <v>0.9996446127860936</v>
+        <v>1.021209406140363</v>
       </c>
       <c r="K14">
-        <v>1.009867783070578</v>
+        <v>1.024856069815028</v>
       </c>
       <c r="L14">
-        <v>0.9964573697728998</v>
+        <v>1.020007896166747</v>
       </c>
       <c r="N14">
-        <v>1.00106422279709</v>
+        <v>1.022659640631438</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693899969160455</v>
+        <v>1.014578808773562</v>
       </c>
       <c r="D15">
-        <v>0.995186882932343</v>
+        <v>1.02129862026589</v>
       </c>
       <c r="E15">
-        <v>0.9815499117164357</v>
+        <v>1.016443460493757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034509929488771</v>
+        <v>1.026718938452259</v>
       </c>
       <c r="J15">
-        <v>0.9999348769795485</v>
+        <v>1.021266822655555</v>
       </c>
       <c r="K15">
-        <v>1.010127706044367</v>
+        <v>1.024905054342714</v>
       </c>
       <c r="L15">
-        <v>0.9967544479915316</v>
+        <v>1.020068482686973</v>
       </c>
       <c r="N15">
-        <v>1.001354899198993</v>
+        <v>1.022717138684667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9723332022353854</v>
+        <v>1.015137373162919</v>
       </c>
       <c r="D16">
-        <v>0.99724330500014</v>
+        <v>1.021700690445452</v>
       </c>
       <c r="E16">
-        <v>0.9838388338953024</v>
+        <v>1.016914233876177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035107539733366</v>
+        <v>1.026788605615563</v>
       </c>
       <c r="J16">
-        <v>1.001608747783586</v>
+        <v>1.021600961110152</v>
       </c>
       <c r="K16">
-        <v>1.011625686762075</v>
+        <v>1.025189953349994</v>
       </c>
       <c r="L16">
-        <v>0.9984685891622725</v>
+        <v>1.020421178898886</v>
       </c>
       <c r="N16">
-        <v>1.003031147091568</v>
+        <v>1.023051751654197</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741564087282405</v>
+        <v>1.015487898019444</v>
       </c>
       <c r="D17">
-        <v>0.9985184050590783</v>
+        <v>1.021952938300908</v>
       </c>
       <c r="E17">
-        <v>0.9852593842291063</v>
+        <v>1.017209805076963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035474466376016</v>
+        <v>1.026831866510928</v>
       </c>
       <c r="J17">
-        <v>1.002645268913571</v>
+        <v>1.021810511921161</v>
       </c>
       <c r="K17">
-        <v>1.01255246196698</v>
+        <v>1.025368475124646</v>
       </c>
       <c r="L17">
-        <v>0.9995309023659835</v>
+        <v>1.020642464642274</v>
       </c>
       <c r="N17">
-        <v>1.004069140200448</v>
+        <v>1.023261600051392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9752117832758561</v>
+        <v>1.01569240768002</v>
       </c>
       <c r="D18">
-        <v>0.9992569167248616</v>
+        <v>1.022100084020164</v>
       </c>
       <c r="E18">
-        <v>0.9860826107589703</v>
+        <v>1.017382302636523</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035685668258426</v>
+        <v>1.026856941281114</v>
       </c>
       <c r="J18">
-        <v>1.003245113101281</v>
+        <v>1.021932722620425</v>
       </c>
       <c r="K18">
-        <v>1.013088489093283</v>
+        <v>1.025472535753646</v>
       </c>
       <c r="L18">
-        <v>1.000145980089839</v>
+        <v>1.020771554031709</v>
       </c>
       <c r="N18">
-        <v>1.004669836235707</v>
+        <v>1.023383984303868</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9755702894343057</v>
+        <v>1.015762149385926</v>
       </c>
       <c r="D19">
-        <v>0.9995078531981747</v>
+        <v>1.022150259198655</v>
       </c>
       <c r="E19">
-        <v>0.9863624133824178</v>
+        <v>1.017441136059809</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0357572080318</v>
+        <v>1.026865464213467</v>
       </c>
       <c r="J19">
-        <v>1.003448850209936</v>
+        <v>1.021974390434998</v>
       </c>
       <c r="K19">
-        <v>1.013270498072393</v>
+        <v>1.025508006149387</v>
       </c>
       <c r="L19">
-        <v>1.00035494338488</v>
+        <v>1.020815573050013</v>
       </c>
       <c r="N19">
-        <v>1.004873862674426</v>
+        <v>1.023425711291517</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9739616354585017</v>
+        <v>1.015450284379481</v>
       </c>
       <c r="D20">
-        <v>0.9983821426698533</v>
+        <v>1.021925873052176</v>
       </c>
       <c r="E20">
-        <v>0.9851075295857589</v>
+        <v>1.017178083155432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035435391226568</v>
+        <v>1.026827241424317</v>
       </c>
       <c r="J20">
-        <v>1.002534552768097</v>
+        <v>1.021788030825683</v>
       </c>
       <c r="K20">
-        <v>1.012453499928063</v>
+        <v>1.025349328462723</v>
       </c>
       <c r="L20">
-        <v>0.9994173993329071</v>
+        <v>1.020618720992351</v>
       </c>
       <c r="N20">
-        <v>1.003958266825348</v>
+        <v>1.023239087030181</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686353820728391</v>
+        <v>1.014437023756973</v>
       </c>
       <c r="D21">
-        <v>0.9946600382596258</v>
+        <v>1.021196538196005</v>
       </c>
       <c r="E21">
-        <v>0.9809638951312583</v>
+        <v>1.016324003281509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034355700647399</v>
+        <v>1.026701113016217</v>
       </c>
       <c r="J21">
-        <v>0.9995056043539459</v>
+        <v>1.021181963569668</v>
       </c>
       <c r="K21">
-        <v>1.009743289025593</v>
+        <v>1.024832654381688</v>
       </c>
       <c r="L21">
-        <v>0.9963151154888873</v>
+        <v>1.019978940410962</v>
       </c>
       <c r="N21">
-        <v>1.000925016957024</v>
+        <v>1.022632159089145</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9652091574819036</v>
+        <v>1.013800445596852</v>
       </c>
       <c r="D22">
-        <v>0.9922701409415369</v>
+        <v>1.020738112635157</v>
       </c>
       <c r="E22">
-        <v>0.9783074760996354</v>
+        <v>1.015787884326783</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033650557172413</v>
+        <v>1.026620386682175</v>
       </c>
       <c r="J22">
-        <v>0.9975561167209376</v>
+        <v>1.020800762261449</v>
       </c>
       <c r="K22">
-        <v>1.007996299025269</v>
+        <v>1.024507196019504</v>
       </c>
       <c r="L22">
-        <v>0.9943212725110022</v>
+        <v>1.019576848150657</v>
       </c>
       <c r="N22">
-        <v>0.9989727608279674</v>
+        <v>1.022250416431345</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9670330369483219</v>
+        <v>1.014137860008781</v>
       </c>
       <c r="D23">
-        <v>0.9935419051407678</v>
+        <v>1.02098111921743</v>
       </c>
       <c r="E23">
-        <v>0.9797206884705224</v>
+        <v>1.01607200764995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034026904914719</v>
+        <v>1.026663316050686</v>
       </c>
       <c r="J23">
-        <v>0.9985939676508335</v>
+        <v>1.021002857429127</v>
       </c>
       <c r="K23">
-        <v>1.008926586903176</v>
+        <v>1.024679784569091</v>
       </c>
       <c r="L23">
-        <v>0.9953824684178484</v>
+        <v>1.019789988981035</v>
       </c>
       <c r="N23">
-        <v>1.000012085625227</v>
+        <v>1.022452798597341</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9740496700079605</v>
+        <v>1.015467280196209</v>
       </c>
       <c r="D24">
-        <v>0.9984437299226402</v>
+        <v>1.021938102630586</v>
       </c>
       <c r="E24">
-        <v>0.9851761626857765</v>
+        <v>1.017192416630256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035453056310653</v>
+        <v>1.026829331791917</v>
       </c>
       <c r="J24">
-        <v>1.002584595255357</v>
+        <v>1.021798189116898</v>
       </c>
       <c r="K24">
-        <v>1.012498230638652</v>
+        <v>1.025357980225646</v>
       </c>
       <c r="L24">
-        <v>0.9994687005097859</v>
+        <v>1.020629449672835</v>
       </c>
       <c r="N24">
-        <v>1.00400838037868</v>
+        <v>1.023249259747335</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9818774975650754</v>
+        <v>1.017012129478322</v>
       </c>
       <c r="D25">
-        <v>1.003927860372133</v>
+        <v>1.023049164237387</v>
       </c>
       <c r="E25">
-        <v>0.991298078224745</v>
+        <v>1.018496344113342</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036997779276784</v>
+        <v>1.027015760875279</v>
       </c>
       <c r="J25">
-        <v>1.007030536189837</v>
+        <v>1.022720466188899</v>
       </c>
       <c r="K25">
-        <v>1.016465505845849</v>
+        <v>1.026142312449795</v>
       </c>
       <c r="L25">
-        <v>1.004032999234505</v>
+        <v>1.02160426565553</v>
       </c>
       <c r="N25">
-        <v>1.008460635059244</v>
+        <v>1.024172846558564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018245970556423</v>
+        <v>0.9878896841300658</v>
       </c>
       <c r="D2">
-        <v>1.023935713125387</v>
+        <v>1.008149480986078</v>
       </c>
       <c r="E2">
-        <v>1.01953932210469</v>
+        <v>0.9960264080268781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027159414871329</v>
+        <v>1.038145205100699</v>
       </c>
       <c r="J2">
-        <v>1.023455495720206</v>
+        <v>1.010438746160038</v>
       </c>
       <c r="K2">
-        <v>1.026765689217259</v>
+        <v>1.019496436246305</v>
       </c>
       <c r="L2">
-        <v>1.022382269638418</v>
+        <v>1.007541380297066</v>
       </c>
       <c r="N2">
-        <v>1.024908919916115</v>
+        <v>1.011873685078517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019142798033991</v>
+        <v>0.9921310626394072</v>
       </c>
       <c r="D3">
-        <v>1.024579609787356</v>
+        <v>1.011131813779556</v>
       </c>
       <c r="E3">
-        <v>1.02029831003834</v>
+        <v>0.9993763241504491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027260784977316</v>
+        <v>1.038931170034336</v>
       </c>
       <c r="J3">
-        <v>1.02398883736891</v>
+        <v>1.012838565925044</v>
       </c>
       <c r="K3">
-        <v>1.027217014760895</v>
+        <v>1.021624215073297</v>
       </c>
       <c r="L3">
-        <v>1.022947433595613</v>
+        <v>1.010017191250295</v>
       </c>
       <c r="N3">
-        <v>1.025443018971135</v>
+        <v>1.014276912862865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019723537735224</v>
+        <v>0.9948212235424605</v>
       </c>
       <c r="D4">
-        <v>1.024996328756963</v>
+        <v>1.013024890404657</v>
       </c>
       <c r="E4">
-        <v>1.020790200135669</v>
+        <v>1.001507349841496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027325016012484</v>
+        <v>1.039418499172946</v>
       </c>
       <c r="J4">
-        <v>1.024333773904531</v>
+        <v>1.014358337121472</v>
       </c>
       <c r="K4">
-        <v>1.027508442857501</v>
+        <v>1.022968617577914</v>
       </c>
       <c r="L4">
-        <v>1.023313247328722</v>
+        <v>1.011587616459534</v>
       </c>
       <c r="N4">
-        <v>1.025788445356202</v>
+        <v>1.015798842308712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019967782910709</v>
+        <v>0.995939600540508</v>
       </c>
       <c r="D5">
-        <v>1.025171533601696</v>
+        <v>1.013812191774825</v>
       </c>
       <c r="E5">
-        <v>1.020997174442783</v>
+        <v>1.00239474405621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027351691987983</v>
+        <v>1.039618367921627</v>
       </c>
       <c r="J5">
-        <v>1.024478743047606</v>
+        <v>1.014989549400936</v>
       </c>
       <c r="K5">
-        <v>1.027630811984352</v>
+        <v>1.02352623221691</v>
       </c>
       <c r="L5">
-        <v>1.023467061657256</v>
+        <v>1.01224047530356</v>
       </c>
       <c r="N5">
-        <v>1.025933620372088</v>
+        <v>1.016430950982014</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020008798705983</v>
+        <v>0.99612665621423</v>
       </c>
       <c r="D6">
-        <v>1.02520095216563</v>
+        <v>1.013943888544818</v>
       </c>
       <c r="E6">
-        <v>1.021031937065295</v>
+        <v>1.002543251326106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027356151822224</v>
+        <v>1.039651635584668</v>
       </c>
       <c r="J6">
-        <v>1.024503081496555</v>
+        <v>1.015095087368144</v>
       </c>
       <c r="K6">
-        <v>1.027651349627449</v>
+        <v>1.02361941941937</v>
       </c>
       <c r="L6">
-        <v>1.023492889261529</v>
+        <v>1.012349668352513</v>
       </c>
       <c r="N6">
-        <v>1.025957993384426</v>
+        <v>1.016536638825241</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019726800951245</v>
+        <v>0.9948362161717963</v>
       </c>
       <c r="D7">
-        <v>1.024998669791218</v>
+        <v>1.013035443646264</v>
       </c>
       <c r="E7">
-        <v>1.020792965016679</v>
+        <v>1.001519240250641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027325373742885</v>
+        <v>1.039421189387839</v>
       </c>
       <c r="J7">
-        <v>1.024335711156547</v>
+        <v>1.014366801382685</v>
       </c>
       <c r="K7">
-        <v>1.027510078539949</v>
+        <v>1.022976097962874</v>
       </c>
       <c r="L7">
-        <v>1.023315302501812</v>
+        <v>1.011596368585769</v>
       </c>
       <c r="N7">
-        <v>1.025790385359338</v>
+        <v>1.015807318590147</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018548967296559</v>
+        <v>0.9893345863943597</v>
       </c>
       <c r="D8">
-        <v>1.024153304507182</v>
+        <v>1.009165117290994</v>
       </c>
       <c r="E8">
-        <v>1.01979566436168</v>
+        <v>0.9971662724223049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027193955042797</v>
+        <v>1.038415274258972</v>
       </c>
       <c r="J8">
-        <v>1.023635775751023</v>
+        <v>1.011256759046086</v>
       </c>
       <c r="K8">
-        <v>1.026918342273675</v>
+        <v>1.020222356071383</v>
       </c>
       <c r="L8">
-        <v>1.022573244902177</v>
+        <v>1.008384765664438</v>
       </c>
       <c r="N8">
-        <v>1.025089455965254</v>
+        <v>1.012692859636703</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016476842703709</v>
+        <v>0.9792037055309271</v>
       </c>
       <c r="D9">
-        <v>1.022664311004803</v>
+        <v>1.002052920680985</v>
       </c>
       <c r="E9">
-        <v>1.018044293925567</v>
+        <v>0.9892026771509015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026951973814643</v>
+        <v>1.036476165451338</v>
       </c>
       <c r="J9">
-        <v>1.022401141955604</v>
+        <v>1.005512829837789</v>
       </c>
       <c r="K9">
-        <v>1.025871014148735</v>
+        <v>1.015112778258015</v>
       </c>
       <c r="L9">
-        <v>1.021266580030363</v>
+        <v>1.002473396664848</v>
       </c>
       <c r="N9">
-        <v>1.023853068848231</v>
+        <v>1.006940773390092</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015097767876342</v>
+        <v>0.972126055043131</v>
       </c>
       <c r="D10">
-        <v>1.021672185919217</v>
+        <v>0.9970984901845638</v>
       </c>
       <c r="E10">
-        <v>1.016880844497104</v>
+        <v>0.9836775638268802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026783695275742</v>
+        <v>1.035065688992166</v>
       </c>
       <c r="J10">
-        <v>1.02157727761383</v>
+        <v>1.001490961748609</v>
       </c>
       <c r="K10">
-        <v>1.025169769486268</v>
+        <v>1.011520330650713</v>
       </c>
       <c r="L10">
-        <v>1.020396173831303</v>
+        <v>0.9983479141585037</v>
       </c>
       <c r="N10">
-        <v>1.023028034524593</v>
+        <v>1.002913193786911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014501184491556</v>
+        <v>0.968977241573697</v>
       </c>
       <c r="D11">
-        <v>1.021242733556713</v>
+        <v>0.994898691223295</v>
       </c>
       <c r="E11">
-        <v>1.016378058057887</v>
+        <v>0.9812293327903142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026709186440694</v>
+        <v>1.034425619762075</v>
       </c>
       <c r="J11">
-        <v>1.021220366198029</v>
+        <v>0.9997000804702112</v>
       </c>
       <c r="K11">
-        <v>1.024865420969711</v>
+        <v>1.009917456265703</v>
       </c>
       <c r="L11">
-        <v>1.020019460912652</v>
+        <v>0.9965141357699703</v>
       </c>
       <c r="N11">
-        <v>1.022670616253643</v>
+        <v>1.001119769251681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014279673001967</v>
+        <v>0.9677943180080628</v>
       </c>
       <c r="D12">
-        <v>1.021083239224717</v>
+        <v>0.9940730381886344</v>
       </c>
       <c r="E12">
-        <v>1.016191451877276</v>
+        <v>0.9803111486895955</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026681264296139</v>
+        <v>1.034183336045155</v>
       </c>
       <c r="J12">
-        <v>1.021087768630182</v>
+        <v>0.9990271097248719</v>
       </c>
       <c r="K12">
-        <v>1.024752267727835</v>
+        <v>1.009314677231067</v>
       </c>
       <c r="L12">
-        <v>1.019879561059593</v>
+        <v>0.9958255335496327</v>
       </c>
       <c r="N12">
-        <v>1.022537830382041</v>
+        <v>1.000445842810692</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014327184050356</v>
+        <v>0.9680486729130046</v>
       </c>
       <c r="D13">
-        <v>1.021117450214172</v>
+        <v>0.9942505365281961</v>
       </c>
       <c r="E13">
-        <v>1.016231472673268</v>
+        <v>0.9805085075745181</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02668726482421</v>
+        <v>1.03423551402426</v>
       </c>
       <c r="J13">
-        <v>1.021116212360972</v>
+        <v>0.9991718209589254</v>
       </c>
       <c r="K13">
-        <v>1.02477654419784</v>
+        <v>1.00944431512785</v>
       </c>
       <c r="L13">
-        <v>1.019909568761439</v>
+        <v>0.9959735839881787</v>
       </c>
       <c r="N13">
-        <v>1.022566314506191</v>
+        <v>1.000590759551297</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014482872518264</v>
+        <v>0.9688797363932178</v>
       </c>
       <c r="D14">
-        <v>1.021229549218312</v>
+        <v>0.9948306190726123</v>
       </c>
       <c r="E14">
-        <v>1.016362630041212</v>
+        <v>0.9811536174625892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026706883407301</v>
+        <v>1.034405685766565</v>
       </c>
       <c r="J14">
-        <v>1.021209406140363</v>
+        <v>0.9996446127860935</v>
       </c>
       <c r="K14">
-        <v>1.024856069815028</v>
+        <v>1.009867783070578</v>
       </c>
       <c r="L14">
-        <v>1.020007896166747</v>
+        <v>0.9964573697728996</v>
       </c>
       <c r="N14">
-        <v>1.022659640631438</v>
+        <v>1.001064222797089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014578808773562</v>
+        <v>0.9693899969160464</v>
       </c>
       <c r="D15">
-        <v>1.02129862026589</v>
+        <v>0.9951868829323437</v>
       </c>
       <c r="E15">
-        <v>1.016443460493757</v>
+        <v>0.9815499117164362</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026718938452259</v>
+        <v>1.034509929488771</v>
       </c>
       <c r="J15">
-        <v>1.021266822655555</v>
+        <v>0.9999348769795494</v>
       </c>
       <c r="K15">
-        <v>1.024905054342714</v>
+        <v>1.010127706044368</v>
       </c>
       <c r="L15">
-        <v>1.020068482686973</v>
+        <v>0.9967544479915322</v>
       </c>
       <c r="N15">
-        <v>1.022717138684667</v>
+        <v>1.001354899198994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015137373162919</v>
+        <v>0.9723332022353866</v>
       </c>
       <c r="D16">
-        <v>1.021700690445452</v>
+        <v>0.9972433050001407</v>
       </c>
       <c r="E16">
-        <v>1.016914233876177</v>
+        <v>0.983838833895303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026788605615563</v>
+        <v>1.035107539733367</v>
       </c>
       <c r="J16">
-        <v>1.021600961110152</v>
+        <v>1.001608747783587</v>
       </c>
       <c r="K16">
-        <v>1.025189953349994</v>
+        <v>1.011625686762075</v>
       </c>
       <c r="L16">
-        <v>1.020421178898886</v>
+        <v>0.9984685891622732</v>
       </c>
       <c r="N16">
-        <v>1.023051751654197</v>
+        <v>1.003031147091568</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015487898019444</v>
+        <v>0.9741564087282404</v>
       </c>
       <c r="D17">
-        <v>1.021952938300908</v>
+        <v>0.9985184050590782</v>
       </c>
       <c r="E17">
-        <v>1.017209805076963</v>
+        <v>0.9852593842291061</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026831866510928</v>
+        <v>1.035474466376016</v>
       </c>
       <c r="J17">
-        <v>1.021810511921161</v>
+        <v>1.002645268913571</v>
       </c>
       <c r="K17">
-        <v>1.025368475124646</v>
+        <v>1.01255246196698</v>
       </c>
       <c r="L17">
-        <v>1.020642464642274</v>
+        <v>0.9995309023659834</v>
       </c>
       <c r="N17">
-        <v>1.023261600051392</v>
+        <v>1.004069140200448</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01569240768002</v>
+        <v>0.9752117832758558</v>
       </c>
       <c r="D18">
-        <v>1.022100084020164</v>
+        <v>0.9992569167248617</v>
       </c>
       <c r="E18">
-        <v>1.017382302636523</v>
+        <v>0.98608261075897</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026856941281114</v>
+        <v>1.035685668258426</v>
       </c>
       <c r="J18">
-        <v>1.021932722620425</v>
+        <v>1.00324511310128</v>
       </c>
       <c r="K18">
-        <v>1.025472535753646</v>
+        <v>1.013088489093283</v>
       </c>
       <c r="L18">
-        <v>1.020771554031709</v>
+        <v>1.000145980089838</v>
       </c>
       <c r="N18">
-        <v>1.023383984303868</v>
+        <v>1.004669836235707</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015762149385926</v>
+        <v>0.9755702894343056</v>
       </c>
       <c r="D19">
-        <v>1.022150259198655</v>
+        <v>0.9995078531981744</v>
       </c>
       <c r="E19">
-        <v>1.017441136059809</v>
+        <v>0.9863624133824177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026865464213467</v>
+        <v>1.0357572080318</v>
       </c>
       <c r="J19">
-        <v>1.021974390434998</v>
+        <v>1.003448850209936</v>
       </c>
       <c r="K19">
-        <v>1.025508006149387</v>
+        <v>1.013270498072393</v>
       </c>
       <c r="L19">
-        <v>1.020815573050013</v>
+        <v>1.00035494338488</v>
       </c>
       <c r="N19">
-        <v>1.023425711291517</v>
+        <v>1.004873862674426</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015450284379481</v>
+        <v>0.9739616354585009</v>
       </c>
       <c r="D20">
-        <v>1.021925873052176</v>
+        <v>0.9983821426698525</v>
       </c>
       <c r="E20">
-        <v>1.017178083155432</v>
+        <v>0.9851075295857582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026827241424317</v>
+        <v>1.035435391226568</v>
       </c>
       <c r="J20">
-        <v>1.021788030825683</v>
+        <v>1.002534552768096</v>
       </c>
       <c r="K20">
-        <v>1.025349328462723</v>
+        <v>1.012453499928063</v>
       </c>
       <c r="L20">
-        <v>1.020618720992351</v>
+        <v>0.9994173993329064</v>
       </c>
       <c r="N20">
-        <v>1.023239087030181</v>
+        <v>1.003958266825348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014437023756973</v>
+        <v>0.9686353820728394</v>
       </c>
       <c r="D21">
-        <v>1.021196538196005</v>
+        <v>0.9946600382596259</v>
       </c>
       <c r="E21">
-        <v>1.016324003281509</v>
+        <v>0.9809638951312579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026701113016217</v>
+        <v>1.034355700647399</v>
       </c>
       <c r="J21">
-        <v>1.021181963569668</v>
+        <v>0.9995056043539461</v>
       </c>
       <c r="K21">
-        <v>1.024832654381688</v>
+        <v>1.009743289025593</v>
       </c>
       <c r="L21">
-        <v>1.019978940410962</v>
+        <v>0.9963151154888872</v>
       </c>
       <c r="N21">
-        <v>1.022632159089145</v>
+        <v>1.000925016957024</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013800445596852</v>
+        <v>0.9652091574819033</v>
       </c>
       <c r="D22">
-        <v>1.020738112635157</v>
+        <v>0.9922701409415368</v>
       </c>
       <c r="E22">
-        <v>1.015787884326783</v>
+        <v>0.9783074760996351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026620386682175</v>
+        <v>1.033650557172413</v>
       </c>
       <c r="J22">
-        <v>1.020800762261449</v>
+        <v>0.9975561167209375</v>
       </c>
       <c r="K22">
-        <v>1.024507196019504</v>
+        <v>1.007996299025269</v>
       </c>
       <c r="L22">
-        <v>1.019576848150657</v>
+        <v>0.994321272511002</v>
       </c>
       <c r="N22">
-        <v>1.022250416431345</v>
+        <v>0.998972760827967</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014137860008781</v>
+        <v>0.9670330369483217</v>
       </c>
       <c r="D23">
-        <v>1.02098111921743</v>
+        <v>0.9935419051407676</v>
       </c>
       <c r="E23">
-        <v>1.01607200764995</v>
+        <v>0.9797206884705223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026663316050686</v>
+        <v>1.034026904914719</v>
       </c>
       <c r="J23">
-        <v>1.021002857429127</v>
+        <v>0.9985939676508334</v>
       </c>
       <c r="K23">
-        <v>1.024679784569091</v>
+        <v>1.008926586903176</v>
       </c>
       <c r="L23">
-        <v>1.019789988981035</v>
+        <v>0.9953824684178483</v>
       </c>
       <c r="N23">
-        <v>1.022452798597341</v>
+        <v>1.000012085625227</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.015467280196209</v>
+        <v>0.9740496700079605</v>
       </c>
       <c r="D24">
-        <v>1.021938102630586</v>
+        <v>0.9984437299226402</v>
       </c>
       <c r="E24">
-        <v>1.017192416630256</v>
+        <v>0.9851761626857762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026829331791917</v>
+        <v>1.035453056310653</v>
       </c>
       <c r="J24">
-        <v>1.021798189116898</v>
+        <v>1.002584595255357</v>
       </c>
       <c r="K24">
-        <v>1.025357980225646</v>
+        <v>1.012498230638652</v>
       </c>
       <c r="L24">
-        <v>1.020629449672835</v>
+        <v>0.9994687005097858</v>
       </c>
       <c r="N24">
-        <v>1.023249259747335</v>
+        <v>1.00400838037868</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017012129478322</v>
+        <v>0.981877497565075</v>
       </c>
       <c r="D25">
-        <v>1.023049164237387</v>
+        <v>1.003927860372132</v>
       </c>
       <c r="E25">
-        <v>1.018496344113342</v>
+        <v>0.9912980782247446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027015760875279</v>
+        <v>1.036997779276784</v>
       </c>
       <c r="J25">
-        <v>1.022720466188899</v>
+        <v>1.007030536189837</v>
       </c>
       <c r="K25">
-        <v>1.026142312449795</v>
+        <v>1.016465505845848</v>
       </c>
       <c r="L25">
-        <v>1.02160426565553</v>
+        <v>1.004032999234504</v>
       </c>
       <c r="N25">
-        <v>1.024172846558564</v>
+        <v>1.008460635059243</v>
       </c>
     </row>
   </sheetData>
